--- a/graphs_1.xlsx
+++ b/graphs_1.xlsx
@@ -147,7 +147,7 @@
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>txlin</c:v>
+            <c:v>"Среднее время работы линейного поиска в зависимости от n"</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
@@ -487,7 +487,7 @@
           <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>tylin</c:v>
+            <c:v>"Наибольшее время работы линейного поиска в зависимости от n"</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
@@ -1055,10 +1055,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84978856809565473"/>
-          <c:y val="9.3798027568535364E-2"/>
-          <c:w val="9.6055067391938323E-2"/>
-          <c:h val="0.12440944881889764"/>
+          <c:x val="0.2459238337961378"/>
+          <c:y val="4.2198440365232993E-2"/>
+          <c:w val="0.22689242649016694"/>
+          <c:h val="0.34112771507276762"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1119,7 +1119,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>txln</c:v>
+            <c:v>"Среднее время работы бинарного поиска в зависимости от n"</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
@@ -1454,7 +1454,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>tyln</c:v>
+            <c:v>"Наибольшее время работы бинарного поиска в зависимости от n"</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
@@ -2022,10 +2022,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.87031981056715746"/>
-          <c:y val="1.4678660523471701E-2"/>
-          <c:w val="9.1435422927206564E-2"/>
-          <c:h val="0.12440944881889764"/>
+          <c:x val="0.1718496012273828"/>
+          <c:y val="2.4998577964132192E-2"/>
+          <c:w val="0.25246601874041102"/>
+          <c:h val="0.31704790771122648"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2086,16 +2086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2388,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
